--- a/perfil_final.xlsx
+++ b/perfil_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre_Nicolella\Aulas\FEA-RP\Jurimetria\jurimetria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre_Nicolella\Aulas\FEA-RP\Jurimetria\ESMPTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
   <si>
     <t>Direito</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Tive contato com R, Python ou outro linguagem</t>
   </si>
   <si>
+    <t>R, Rstudio, Python</t>
+  </si>
+  <si>
     <t>Análise Automatizada, Realizar pesquisas juridicas</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>aplicar a estatística e a análise de dados para tomar decisões mais informadas e estratégicas</t>
   </si>
   <si>
+    <t>não</t>
+  </si>
+  <si>
     <t>Espero aprender ao menos o básico para usar dia a dia</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
   </si>
   <si>
     <t>Tenho conhecimento avançado</t>
+  </si>
+  <si>
+    <t>R, Rstudio</t>
   </si>
   <si>
     <t>Espero revisar e aprimorar conceitos de estatística inferencial, modelagem de dados, mineração e visualização de informações, aplicando-os a bases processuais e dados judiciais. Além disso, pretendo desenvolver maior domínio sobre ferramentas e metodologias específicas utilizadas na análise de dados do Poder Judiciário. Em síntese, busco integrar o conhecimento técnico-estatístico às demandas práticas do sistema judicial, de modo a transformar dados em evidências úteis para a tomada de decisão e o aperfeiçoamento institucional.</t>
@@ -278,6 +287,22 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -301,29 +326,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" size="0" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -555,9 +564,9 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -572,25 +581,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -630,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -644,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -653,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -676,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -699,13 +708,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -722,13 +731,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,13 +754,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,13 +777,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,13 +823,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,22 +837,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,13 +869,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,13 +892,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -906,13 +915,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,22 +952,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -975,13 +984,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,13 +1007,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,13 +1030,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,22 +1044,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,19 +1070,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,19 +1093,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,22 +1159,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,16 +1188,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,22 +1205,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/perfil_final.xlsx
+++ b/perfil_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre_Nicolella\Aulas\FEA-RP\Jurimetria\ESMPTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre_Nicolella\Aulas\FEA-RP\Jurimetria\jurimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>Direito</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Tive contato com R, Python ou outro linguagem</t>
   </si>
   <si>
-    <t>R, Rstudio, Python</t>
-  </si>
-  <si>
     <t>Análise Automatizada, Realizar pesquisas juridicas</t>
   </si>
   <si>
-    <t>R, Python</t>
-  </si>
-  <si>
     <t>Espero "praticar" um pouco mais da teoria que aprendo na faculdade, junto ao direito, buscando alinhar os dois.</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>aplicar a estatística e a análise de dados para tomar decisões mais informadas e estratégicas</t>
   </si>
   <si>
-    <t>não</t>
-  </si>
-  <si>
     <t>Espero aprender ao menos o básico para usar dia a dia</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Tenho conhecimento avançado</t>
   </si>
   <si>
-    <t>R, Rstudio</t>
-  </si>
-  <si>
     <t>Espero revisar e aprimorar conceitos de estatística inferencial, modelagem de dados, mineração e visualização de informações, aplicando-os a bases processuais e dados judiciais. Além disso, pretendo desenvolver maior domínio sobre ferramentas e metodologias específicas utilizadas na análise de dados do Poder Judiciário. Em síntese, busco integrar o conhecimento técnico-estatístico às demandas práticas do sistema judicial, de modo a transformar dados em evidências úteis para a tomada de decisão e o aperfeiçoamento institucional.</t>
   </si>
   <si>
@@ -217,6 +205,9 @@
   </si>
   <si>
     <t>fam_mq</t>
+  </si>
+  <si>
+    <t>R, Rstudio e/ou Python</t>
   </si>
 </sst>
 </file>
@@ -287,22 +278,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -326,13 +301,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" size="0" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -566,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,25 +572,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -639,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -653,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -662,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -685,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -708,13 +699,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -731,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,13 +814,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,22 +828,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,13 +860,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,13 +883,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -915,13 +906,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,22 +943,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -984,13 +975,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,13 +1021,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,22 +1035,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,19 +1061,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,19 +1084,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,22 +1150,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,16 +1179,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,22 +1196,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
